--- a/数据库设计/数据库表设计.xlsx
+++ b/数据库设计/数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,9 +410,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -422,9 +419,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -434,20 +428,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,6 +438,18 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,6 +457,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,329 +753,329 @@
       <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="14.44140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="25.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>42370</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>42401</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="9">
         <v>42401</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="9">
         <v>42430</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>42370</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>42401</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="10">
         <v>42401</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <v>42430</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="9">
         <v>42461</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="14"/>
+      <c r="D9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
